--- a/参考文件/调查问卷数据.xlsx
+++ b/参考文件/调查问卷数据.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\下载\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\人机交互\Object\WSZBTeam\参考文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
   <si>
     <t>年级</t>
   </si>
@@ -340,6 +340,10 @@
   </si>
   <si>
     <t>休息时间管理</t>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -714,545 +718,578 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="38" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="38" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>58</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>61</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>70</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>74</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>77</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>85</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>90</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
       </c>
       <c r="H3" t="s">
         <v>50</v>
       </c>
       <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
         <v>62</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>71</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>75</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>78</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>86</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>91</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>72</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>76</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>79</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>87</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>92</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>64</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>78</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>91</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>53</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>59</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>65</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>72</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>74</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>80</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>88</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>93</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>54</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>66</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>71</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>75</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>81</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>86</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>94</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>40</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>55</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>60</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>67</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>70</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>74</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>82</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>87</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>95</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>47</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>56</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>50</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>68</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>73</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>76</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>83</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>88</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>96</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>57</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>58</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>65</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>72</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>74</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>84</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>85</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>93</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>48</v>
-      </c>
-      <c r="G11" t="s">
-        <v>50</v>
       </c>
       <c r="H11" t="s">
         <v>50</v>
       </c>
       <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
         <v>69</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>71</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>75</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>78</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>89</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>91</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>106</v>
       </c>
     </row>
